--- a/data/input/actualizacion_protocolo/indicadores.xlsx
+++ b/data/input/actualizacion_protocolo/indicadores.xlsx
@@ -22,7 +22,7 @@
     <t>Nivel actual</t>
   </si>
   <si>
-    <t>Riesgo Controlado</t>
+    <t>1</t>
   </si>
   <si>
     <t>IA 14d ≥60a</t>
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>342.6946077003478</v>
+        <v>825.8940045578382</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>166.2068847346687</v>
+        <v>459.2107743184661</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>291</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>600</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/indicadores.xlsx
+++ b/data/input/actualizacion_protocolo/indicadores.xlsx
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>825.8940045578382</v>
+        <v>903.0002912904166</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>459.2107743184661</v>
+        <v>525.4650651405334</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>142</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>804</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1446</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/indicadores.xlsx
+++ b/data/input/actualizacion_protocolo/indicadores.xlsx
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>903.0002912904166</v>
+        <v>1402.763260853424</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>525.4650651405334</v>
+        <v>683.6757423621939</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>920</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1581</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>833</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/indicadores.xlsx
+++ b/data/input/actualizacion_protocolo/indicadores.xlsx
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1402.763260853424</v>
+        <v>692.8142652342032</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>683.6757423621939</v>
+        <v>306.1405162123107</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1197</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2456</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>868</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/indicadores.xlsx
+++ b/data/input/actualizacion_protocolo/indicadores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -22,7 +22,7 @@
     <t>Nivel actual</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>IA 14d ≥60a</t>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>Casos 14d ≥60a</t>
-  </si>
-  <si>
-    <t>Fallecidos AYER</t>
-  </si>
-  <si>
-    <t>Fallecidos 7d</t>
   </si>
   <si>
     <t>Fallecidos</t>
@@ -416,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,10 +422,8 @@
     <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -455,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>692.8142652342032</v>
+        <v>1375.347692237396</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -463,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>306.1405162123107</v>
+        <v>472.3474009469794</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -471,7 +463,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -479,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>536</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -487,31 +479,15 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1213</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>898</v>
+      <c r="B8" s="3">
+        <v>956</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/indicadores.xlsx
+++ b/data/input/actualizacion_protocolo/indicadores.xlsx
@@ -22,7 +22,7 @@
     <t>Nivel actual</t>
   </si>
   <si>
-    <t>2</t>
+    <t>Riesgo Controlado</t>
   </si>
   <si>
     <t>IA 14d ≥60a</t>
@@ -447,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1375.347692237396</v>
+        <v>191.9089803121948</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -455,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>472.3474009469794</v>
+        <v>79.96207513008116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -463,7 +463,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>827</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -479,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2408</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>956</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/indicadores.xlsx
+++ b/data/input/actualizacion_protocolo/indicadores.xlsx
@@ -447,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>191.9089803121948</v>
+        <v>38.26756452653884</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -455,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>79.96207513008116</v>
+        <v>7.425049833507536</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -463,7 +463,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>140</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -479,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>336</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>985</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
